--- a/协议.xlsx
+++ b/协议.xlsx
@@ -203,10 +203,15 @@
     <t>不发送密码</t>
   </si>
   <si>
-    <t xml:space="preserve">开阀密码：1A里的ret=2,则随机生成。
+    <t>开阀密码：1A里的ret=2,则随机生成。
 1A里的ret=3,则根据小程序的帐号绑定的公司ID,到服务器找密码。
-ret:3ID不对，2密码不对，1设置新密码且写入正确，0写入正确
-</t>
+ret:0写入正确
+1写入正确且设置新密码
+2密码不正确
+3写入错误，阀门ID错误
+4写入错误，写入超时
+5工具连接阀门超时
+6服务器保存标志位为1时的应答，不写入</t>
   </si>
   <si>
     <t>自动开阀和随机密码开阀方案协议</t>
@@ -380,19 +385,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,28 +404,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,8 +422,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,8 +496,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,7 +514,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,54 +538,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,16 +550,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,25 +626,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,151 +746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,21 +847,6 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -933,13 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,6 +919,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -990,10 +952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,133 +964,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,19 +1098,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1175,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,13 +1158,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
@@ -1220,13 +1182,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,7 +1209,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,7 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2025,8 +1987,8 @@
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2038,7 +2000,7 @@
     <col min="6" max="6" width="14.7818181818182" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.1090909090909" style="18" customWidth="1"/>
     <col min="8" max="8" width="15" style="18" customWidth="1"/>
-    <col min="9" max="9" width="33.5363636363636" style="18" customWidth="1"/>
+    <col min="9" max="9" width="40.9" style="18" customWidth="1"/>
     <col min="10" max="16384" width="8.89090909090909" style="18"/>
   </cols>
   <sheetData>
@@ -2332,7 +2294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" ht="89.4" customHeight="1" spans="1:9">
+    <row r="15" ht="157" customHeight="1" spans="1:9">
       <c r="A15" s="39"/>
       <c r="B15" s="44"/>
       <c r="C15" s="20" t="s">
@@ -2357,7 +2319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="1:9">
+    <row r="16" spans="1:9">
       <c r="A16" s="39"/>
       <c r="B16" s="44"/>
       <c r="C16" s="20" t="s">
@@ -2463,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:15">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -2494,7 +2456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:12">
+    <row r="4" spans="1:12">
       <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
         <v>60</v>
@@ -2542,7 +2504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" ht="42" spans="1:9">
+    <row r="6" ht="28" spans="1:9">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
         <v>64</v>
@@ -2639,7 +2601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" ht="42" spans="1:9">
+    <row r="11" ht="28" spans="1:9">
       <c r="A11" s="9"/>
       <c r="B11" s="14" t="s">
         <v>78</v>
